--- a/biology/Virologie/Virus_de_la_jaunisse_infectieuse_de_la_laitue/Virus_de_la_jaunisse_infectieuse_de_la_laitue.xlsx
+++ b/biology/Virologie/Virus_de_la_jaunisse_infectieuse_de_la_laitue/Virus_de_la_jaunisse_infectieuse_de_la_laitue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lettuce infectious yellows virus
 La jaunisse infectieuse de la laitue (LIYV, Lettuce infectious yellows virus) est une espèce de virus du genre Crinivirus (famille des Closteroviridae) dont c'est l'espèce-type. C'est un virus à ARN à simple brin à polarité positive, classé dans le groupe IV de la classification Baltimore.
 Ce virus, circonscrit à l'Amérique du Nord, infecte principalement la laitue et les cucurbitacées cultivées. Il est transmis selon un mode semi-persistant par l'aleurode du tabac (Bemisi tabaci).
-Le LIYV provoque des dégât important sur les cultures de salades et de cucurbitacées tant dans les cultures de plein champ (notamment en Californie) que dans des cultures hydroponiques (Arizona)[3]. 
+Le LIYV provoque des dégât important sur les cultures de salades et de cucurbitacées tant dans les cultures de plein champ (notamment en Californie) que dans des cultures hydroponiques (Arizona). 
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le LIYV est transmis par un insecte vecteur, l'aleurode du tabac (Bemisia tabaci), espèce d'aleurodes de la famille des Aleyrodidae (Hémiptères), selon un mode semi-persistant, c'est-à-dire que le vecteur peut conserver le virus et rester infectieux pendant plusieurs jours. 
-Ce virus n'est pas transmis par inoculation mécanique. Les cultures légumières sensibles sont infectées, de manière naturelle, par les migrations importantes de Bemisia tabaci venant d'autres plantes cultivées[4].
+Ce virus n'est pas transmis par inoculation mécanique. Les cultures légumières sensibles sont infectées, de manière naturelle, par les migrations importantes de Bemisia tabaci venant d'autres plantes cultivées.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gamme de plantes-hôtes du LIYV est relativement étendue, comprenant environ 45 espèces dans 15 familles, en particulier Asteraceae et Cucurbitaceae. Les principales plantes-hôtes présentant un intérêt économique sont la betterave (Beta vulgaris), la laitue cultivée (Lactuca sativa), la courgette (Cucurbita pepo) et le melon (Cucumis melo). Parmi les autres plantes-hôtes infectées naturellement figurent la carotte (Daucus carota), diverses courges (Cucurbita foetidissima, Cucurbita maxima, Cucurbita moschata et la pastèque (Citrullus lanatus). 
-Ce virus infecte aussi diverses mauvaises herbes et adventices, parmi lesquelles Helianthus sp., Ipomoea sp., Lactuca canadensis, Malva parviflora et Physalis heterophylla[4].
+Ce virus infecte aussi diverses mauvaises herbes et adventices, parmi lesquelles Helianthus sp., Ipomoea sp., Lactuca canadensis, Malva parviflora et Physalis heterophylla.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition du virus de la jaunisse infectieuse de la laitue s'étend en Amérique du Nord : aux États-Unis (notamment en Arizona, Californie, Pennsylvanie, Texas) et au Mexique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du virus de la jaunisse infectieuse de la laitue s'étend en Amérique du Nord : aux États-Unis (notamment en Arizona, Californie, Pennsylvanie, Texas) et au Mexique.
 </t>
         </is>
       </c>
